--- a/task1/preprocessing/prep_race_videos/RACE_python_format_final.xlsx
+++ b/task1/preprocessing/prep_race_videos/RACE_python_format_final.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C93893B381FAD643529A01637F18EDE8E7C12DE1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsanford/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2F9217-CBC4-144A-9215-59C85EE0B82D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11800" yWindow="460" windowWidth="17000" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5506,7 +5509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5864,32 +5867,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="D379" sqref="D379"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="G393" sqref="G393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="56.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="87.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6301,7 +6304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7196,7 +7199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7661,7 +7664,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8653,7 +8656,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9014,7 +9017,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9387,7 +9390,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9449,7 +9452,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9514,7 +9517,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9573,7 +9576,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9887,7 +9890,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10130,7 +10133,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10530,7 +10533,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10853,7 +10856,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11016,7 +11019,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11096,7 +11099,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11596,7 +11599,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11643,7 +11646,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11729,7 +11732,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11809,7 +11812,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -12277,7 +12280,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12440,7 +12443,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12600,7 +12603,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12686,7 +12689,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12846,7 +12849,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13009,7 +13012,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13092,7 +13095,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13178,7 +13181,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13261,7 +13264,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13341,7 +13344,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13424,7 +13427,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13587,7 +13590,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13753,7 +13756,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13833,7 +13836,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13916,7 +13919,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13999,7 +14002,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -14159,7 +14162,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -14304,7 +14307,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14378,7 +14381,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14461,7 +14464,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14541,7 +14544,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14698,7 +14701,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14825,7 +14828,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14905,7 +14908,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -15068,7 +15071,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -15148,7 +15151,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -15228,7 +15231,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -15391,7 +15394,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -15471,7 +15474,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -15554,7 +15557,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -15634,7 +15637,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -15717,7 +15720,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -15797,7 +15800,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -15880,7 +15883,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -15963,7 +15966,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -16046,7 +16049,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -16129,7 +16132,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -16212,7 +16215,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -16292,7 +16295,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -16372,7 +16375,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -16452,7 +16455,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -16535,7 +16538,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -16781,7 +16784,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -16861,7 +16864,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -16941,7 +16944,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -17021,7 +17024,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -17101,7 +17104,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -17184,7 +17187,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -17267,7 +17270,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -17350,7 +17353,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -17433,7 +17436,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -17480,7 +17483,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -17560,7 +17563,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -17643,7 +17646,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -17726,7 +17729,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -17969,7 +17972,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -18028,7 +18031,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -18075,7 +18078,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -18143,7 +18146,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -18226,7 +18229,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -18306,7 +18309,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -18386,7 +18389,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -18546,7 +18549,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -18632,7 +18635,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -18712,7 +18715,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -18792,7 +18795,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -18872,7 +18875,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -18952,7 +18955,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -19032,7 +19035,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -19115,7 +19118,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -19195,7 +19198,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -19254,7 +19257,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -19325,7 +19328,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -19378,7 +19381,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -19461,7 +19464,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -19544,7 +19547,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -19624,7 +19627,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -19704,7 +19707,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -19787,7 +19790,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -19867,7 +19870,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -19947,7 +19950,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -20027,7 +20030,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -20110,7 +20113,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -20193,7 +20196,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -20279,7 +20282,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -20359,7 +20362,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -20439,7 +20442,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -20522,7 +20525,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -20587,7 +20590,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -20643,7 +20646,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -20690,7 +20693,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -20847,7 +20850,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -20906,7 +20909,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -20956,7 +20959,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -21006,7 +21009,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -21089,7 +21092,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -21255,7 +21258,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -21335,7 +21338,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -21418,7 +21421,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -21504,7 +21507,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -21673,7 +21676,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -21753,7 +21756,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -21833,7 +21836,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -21916,7 +21919,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -21996,7 +21999,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -22079,7 +22082,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -22162,7 +22165,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -22242,7 +22245,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -22325,7 +22328,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -22405,7 +22408,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -22485,7 +22488,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -22571,7 +22574,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -22651,7 +22654,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -22731,7 +22734,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -22811,7 +22814,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -22894,7 +22897,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -22974,7 +22977,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -23137,7 +23140,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -23220,7 +23223,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -23300,7 +23303,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -23383,7 +23386,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -23463,7 +23466,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -23543,7 +23546,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -23626,7 +23629,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -23706,7 +23709,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -23789,7 +23792,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -23869,7 +23872,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -23949,7 +23952,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -24029,7 +24032,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B233">
         <v>1101111</v>
       </c>
@@ -24045,6 +24048,9 @@
       <c r="F233">
         <v>1</v>
       </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
       <c r="H233">
         <v>12.852</v>
       </c>
@@ -24085,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B234">
         <v>1101111</v>
       </c>
@@ -24101,6 +24107,9 @@
       <c r="F234">
         <v>2</v>
       </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
       <c r="H234">
         <v>45.59</v>
       </c>
@@ -24141,7 +24150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B235">
         <v>1101111</v>
       </c>
@@ -24157,6 +24166,9 @@
       <c r="F235">
         <v>3</v>
       </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
       <c r="H235">
         <v>59.335999999999999</v>
       </c>
@@ -24197,7 +24209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B236">
         <v>1101111</v>
       </c>
@@ -24213,6 +24225,9 @@
       <c r="F236">
         <v>4</v>
       </c>
+      <c r="G236">
+        <v>4</v>
+      </c>
       <c r="H236">
         <v>98.938000000000002</v>
       </c>
@@ -24253,7 +24268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B237">
         <v>1101111</v>
       </c>
@@ -24269,6 +24284,9 @@
       <c r="F237">
         <v>5</v>
       </c>
+      <c r="G237">
+        <v>5</v>
+      </c>
       <c r="H237">
         <v>123.96</v>
       </c>
@@ -24309,7 +24327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B238">
         <v>1101111</v>
       </c>
@@ -24325,6 +24343,9 @@
       <c r="F238">
         <v>6</v>
       </c>
+      <c r="G238">
+        <v>6</v>
+      </c>
       <c r="H238">
         <v>149.52099999999999</v>
       </c>
@@ -24365,7 +24386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B239">
         <v>1111000</v>
       </c>
@@ -24381,6 +24402,9 @@
       <c r="F239">
         <v>1</v>
       </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
       <c r="H239">
         <v>13.473000000000001</v>
       </c>
@@ -24421,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B240">
         <v>1111000</v>
       </c>
@@ -24437,6 +24461,9 @@
       <c r="F240">
         <v>2</v>
       </c>
+      <c r="G240">
+        <v>2</v>
+      </c>
       <c r="H240">
         <v>38.151000000000003</v>
       </c>
@@ -24477,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:20">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B241">
         <v>1111000</v>
       </c>
@@ -24493,6 +24520,9 @@
       <c r="F241">
         <v>3</v>
       </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
       <c r="H241">
         <v>59.91</v>
       </c>
@@ -24533,7 +24563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:20">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B242">
         <v>1111000</v>
       </c>
@@ -24549,6 +24579,9 @@
       <c r="F242">
         <v>4</v>
       </c>
+      <c r="G242">
+        <v>4</v>
+      </c>
       <c r="H242">
         <v>92.914000000000001</v>
       </c>
@@ -24589,7 +24622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:20">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B243">
         <v>1111000</v>
       </c>
@@ -24605,6 +24638,9 @@
       <c r="F243">
         <v>5</v>
       </c>
+      <c r="G243">
+        <v>5</v>
+      </c>
       <c r="H243">
         <v>113.949</v>
       </c>
@@ -24633,7 +24669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="2:20">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B244">
         <v>1111000</v>
       </c>
@@ -24649,6 +24685,9 @@
       <c r="F244">
         <v>5</v>
       </c>
+      <c r="G244">
+        <v>6</v>
+      </c>
       <c r="H244">
         <v>134.59800000000001</v>
       </c>
@@ -24677,7 +24716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="2:20">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B245">
         <v>1111000</v>
       </c>
@@ -24693,6 +24732,9 @@
       <c r="F245">
         <v>5</v>
       </c>
+      <c r="G245">
+        <v>7</v>
+      </c>
       <c r="H245">
         <v>181.63300000000001</v>
       </c>
@@ -24721,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:20">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B246">
         <v>1111000</v>
       </c>
@@ -24737,6 +24779,9 @@
       <c r="F246">
         <v>5</v>
       </c>
+      <c r="G246">
+        <v>8</v>
+      </c>
       <c r="J246" t="s">
         <v>1675</v>
       </c>
@@ -24768,7 +24813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:20">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B247">
         <v>1111000</v>
       </c>
@@ -24784,6 +24829,9 @@
       <c r="F247">
         <v>6</v>
       </c>
+      <c r="G247">
+        <v>9</v>
+      </c>
       <c r="H247">
         <v>218.392</v>
       </c>
@@ -24824,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:20">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B248">
         <v>10101011</v>
       </c>
@@ -24840,6 +24888,9 @@
       <c r="F248">
         <v>1</v>
       </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
       <c r="H248">
         <v>12.116</v>
       </c>
@@ -24880,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:20">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B249">
         <v>10101011</v>
       </c>
@@ -24896,6 +24947,9 @@
       <c r="F249">
         <v>2</v>
       </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
       <c r="H249">
         <v>41.378</v>
       </c>
@@ -24924,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:20">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B250">
         <v>10101011</v>
       </c>
@@ -24940,6 +24994,9 @@
       <c r="F250">
         <v>2</v>
       </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
       <c r="J250" t="s">
         <v>1680</v>
       </c>
@@ -24959,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:20">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B251">
         <v>10101011</v>
       </c>
@@ -24975,6 +25032,9 @@
       <c r="F251">
         <v>2</v>
       </c>
+      <c r="G251">
+        <v>4</v>
+      </c>
       <c r="J251" t="s">
         <v>1681</v>
       </c>
@@ -25006,7 +25066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:20">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B252">
         <v>10101011</v>
       </c>
@@ -25022,6 +25082,9 @@
       <c r="F252">
         <v>3</v>
       </c>
+      <c r="G252">
+        <v>5</v>
+      </c>
       <c r="H252">
         <v>116.06699999999999</v>
       </c>
@@ -25062,7 +25125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:20">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B253">
         <v>10101011</v>
       </c>
@@ -25078,6 +25141,9 @@
       <c r="F253">
         <v>4</v>
       </c>
+      <c r="G253">
+        <v>6</v>
+      </c>
       <c r="H253">
         <v>153.71600000000001</v>
       </c>
@@ -25118,7 +25184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:20">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B254">
         <v>10101011</v>
       </c>
@@ -25134,6 +25200,9 @@
       <c r="F254">
         <v>5</v>
       </c>
+      <c r="G254">
+        <v>7</v>
+      </c>
       <c r="H254">
         <v>195.99700000000001</v>
       </c>
@@ -25153,7 +25222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="2:20">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B255">
         <v>10101011</v>
       </c>
@@ -25169,6 +25238,9 @@
       <c r="F255">
         <v>5</v>
       </c>
+      <c r="G255">
+        <v>8</v>
+      </c>
       <c r="H255">
         <v>234.88</v>
       </c>
@@ -25209,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:20">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B256">
         <v>10101011</v>
       </c>
@@ -25225,6 +25297,9 @@
       <c r="F256">
         <v>6</v>
       </c>
+      <c r="G256">
+        <v>9</v>
+      </c>
       <c r="H256">
         <v>270.685</v>
       </c>
@@ -25265,7 +25340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:20">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B257">
         <v>10100110</v>
       </c>
@@ -25281,6 +25356,9 @@
       <c r="F257">
         <v>1</v>
       </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
       <c r="H257">
         <v>17.972000000000001</v>
       </c>
@@ -25321,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:20">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B258">
         <v>10100110</v>
       </c>
@@ -25337,6 +25415,9 @@
       <c r="F258">
         <v>2</v>
       </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
       <c r="H258">
         <v>36.338000000000001</v>
       </c>
@@ -25377,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:20">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B259">
         <v>10100110</v>
       </c>
@@ -25393,6 +25474,9 @@
       <c r="F259">
         <v>3</v>
       </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
       <c r="H259">
         <v>64.466999999999999</v>
       </c>
@@ -25433,7 +25517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:20">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B260">
         <v>10100110</v>
       </c>
@@ -25449,6 +25533,9 @@
       <c r="F260">
         <v>4</v>
       </c>
+      <c r="G260">
+        <v>4</v>
+      </c>
       <c r="H260">
         <v>93.831999999999994</v>
       </c>
@@ -25489,7 +25576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:20">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B261">
         <v>10100110</v>
       </c>
@@ -25505,6 +25592,9 @@
       <c r="F261">
         <v>5</v>
       </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
       <c r="H261">
         <v>119.242</v>
       </c>
@@ -25545,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:20">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B262">
         <v>10100110</v>
       </c>
@@ -25561,6 +25651,9 @@
       <c r="F262">
         <v>6</v>
       </c>
+      <c r="G262">
+        <v>6</v>
+      </c>
       <c r="H262">
         <v>157.03100000000001</v>
       </c>
@@ -25580,7 +25673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:20">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B263">
         <v>10100110</v>
       </c>
@@ -25596,6 +25689,9 @@
       <c r="F263">
         <v>6</v>
       </c>
+      <c r="G263">
+        <v>7</v>
+      </c>
       <c r="H263">
         <v>188.107</v>
       </c>
@@ -25636,7 +25732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:20">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B264">
         <v>1010111</v>
       </c>
@@ -25652,6 +25748,9 @@
       <c r="F264">
         <v>1</v>
       </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
       <c r="H264">
         <v>5.49</v>
       </c>
@@ -25692,7 +25791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:20">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B265">
         <v>1010111</v>
       </c>
@@ -25708,6 +25807,9 @@
       <c r="F265">
         <v>2</v>
       </c>
+      <c r="G265">
+        <v>2</v>
+      </c>
       <c r="H265">
         <v>33.366999999999997</v>
       </c>
@@ -25748,7 +25850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:20">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B266">
         <v>1010111</v>
       </c>
@@ -25764,6 +25866,9 @@
       <c r="F266">
         <v>3</v>
       </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
       <c r="H266">
         <v>58.298000000000002</v>
       </c>
@@ -25804,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:20">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B267">
         <v>1010111</v>
       </c>
@@ -25820,6 +25925,9 @@
       <c r="F267">
         <v>4</v>
       </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
       <c r="H267">
         <v>88.224000000000004</v>
       </c>
@@ -25860,7 +25968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:20">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B268">
         <v>1010111</v>
       </c>
@@ -25876,6 +25984,9 @@
       <c r="F268">
         <v>5</v>
       </c>
+      <c r="G268">
+        <v>5</v>
+      </c>
       <c r="H268">
         <v>125.398</v>
       </c>
@@ -25916,7 +26027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:20">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B269">
         <v>1010111</v>
       </c>
@@ -25932,6 +26043,9 @@
       <c r="F269">
         <v>6</v>
       </c>
+      <c r="G269">
+        <v>6</v>
+      </c>
       <c r="H269">
         <v>146.48500000000001</v>
       </c>
@@ -25972,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:20">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B270">
         <v>1110011</v>
       </c>
@@ -25988,6 +26102,9 @@
       <c r="F270">
         <v>1</v>
       </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
       <c r="I270">
         <v>17.902999999999999</v>
       </c>
@@ -26004,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:20">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B271">
         <v>1110011</v>
       </c>
@@ -26020,6 +26137,9 @@
       <c r="F271">
         <v>1</v>
       </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
       <c r="H271">
         <v>21.420999999999999</v>
       </c>
@@ -26048,7 +26168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:20">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B272">
         <v>1110011</v>
       </c>
@@ -26064,6 +26184,9 @@
       <c r="F272">
         <v>1</v>
       </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
       <c r="H272">
         <v>45.685000000000002</v>
       </c>
@@ -26104,7 +26227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:20">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B273">
         <v>1110011</v>
       </c>
@@ -26120,6 +26243,9 @@
       <c r="F273">
         <v>2</v>
       </c>
+      <c r="G273">
+        <v>4</v>
+      </c>
       <c r="H273">
         <v>80.215999999999994</v>
       </c>
@@ -26148,7 +26274,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="274" spans="2:20">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B274">
         <v>1110011</v>
       </c>
@@ -26164,6 +26290,9 @@
       <c r="F274">
         <v>2</v>
       </c>
+      <c r="G274">
+        <v>5</v>
+      </c>
       <c r="H274">
         <v>108.758</v>
       </c>
@@ -26204,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:20">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B275">
         <v>1110011</v>
       </c>
@@ -26220,6 +26349,9 @@
       <c r="F275">
         <v>3</v>
       </c>
+      <c r="G275">
+        <v>6</v>
+      </c>
       <c r="H275">
         <v>130.715</v>
       </c>
@@ -26248,7 +26380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:20">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B276">
         <v>1110011</v>
       </c>
@@ -26264,6 +26396,9 @@
       <c r="F276">
         <v>3</v>
       </c>
+      <c r="G276">
+        <v>7</v>
+      </c>
       <c r="H276">
         <v>163.34100000000001</v>
       </c>
@@ -26304,7 +26439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:20">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B277">
         <v>1110011</v>
       </c>
@@ -26320,6 +26455,9 @@
       <c r="F277">
         <v>4</v>
       </c>
+      <c r="G277">
+        <v>8</v>
+      </c>
       <c r="H277">
         <v>183.61600000000001</v>
       </c>
@@ -26360,7 +26498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:20">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B278">
         <v>1110011</v>
       </c>
@@ -26376,6 +26514,9 @@
       <c r="F278">
         <v>5</v>
       </c>
+      <c r="G278">
+        <v>9</v>
+      </c>
       <c r="I278">
         <v>244</v>
       </c>
@@ -26392,7 +26533,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="2:20">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B279">
         <v>1110011</v>
       </c>
@@ -26408,6 +26549,9 @@
       <c r="F279">
         <v>5</v>
       </c>
+      <c r="G279">
+        <v>10</v>
+      </c>
       <c r="H279">
         <v>266.78100000000001</v>
       </c>
@@ -26448,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:20">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B280">
         <v>1110011</v>
       </c>
@@ -26464,6 +26608,9 @@
       <c r="F280">
         <v>6</v>
       </c>
+      <c r="G280">
+        <v>11</v>
+      </c>
       <c r="H280">
         <v>295.22899999999998</v>
       </c>
@@ -26492,7 +26639,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="281" spans="2:20">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B281">
         <v>1110011</v>
       </c>
@@ -26508,6 +26655,9 @@
       <c r="F281">
         <v>6</v>
       </c>
+      <c r="G281">
+        <v>12</v>
+      </c>
       <c r="J281" t="s">
         <v>1718</v>
       </c>
@@ -26527,7 +26677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:20">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B282">
         <v>1110011</v>
       </c>
@@ -26543,6 +26693,9 @@
       <c r="F282">
         <v>6</v>
       </c>
+      <c r="G282">
+        <v>13</v>
+      </c>
       <c r="J282" t="s">
         <v>1719</v>
       </c>
@@ -26562,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:20">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B283">
         <v>1110011</v>
       </c>
@@ -26578,6 +26731,9 @@
       <c r="F283">
         <v>6</v>
       </c>
+      <c r="G283">
+        <v>14</v>
+      </c>
       <c r="H283">
         <v>354.69200000000001</v>
       </c>
@@ -26597,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:20">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B284">
         <v>1110011</v>
       </c>
@@ -26613,6 +26769,9 @@
       <c r="F284">
         <v>6</v>
       </c>
+      <c r="G284">
+        <v>15</v>
+      </c>
       <c r="H284">
         <v>363.01600000000002</v>
       </c>
@@ -26653,7 +26812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:20">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B285">
         <v>1011111</v>
       </c>
@@ -26669,6 +26828,9 @@
       <c r="F285">
         <v>1</v>
       </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
       <c r="H285">
         <v>9.8190000000000008</v>
       </c>
@@ -26709,7 +26871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:20">
+    <row r="286" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B286">
         <v>1011111</v>
       </c>
@@ -26725,6 +26887,9 @@
       <c r="F286">
         <v>2</v>
       </c>
+      <c r="G286">
+        <v>2</v>
+      </c>
       <c r="H286">
         <v>32.206000000000003</v>
       </c>
@@ -26765,7 +26930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:20">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B287">
         <v>1011111</v>
       </c>
@@ -26781,6 +26946,9 @@
       <c r="F287">
         <v>3</v>
       </c>
+      <c r="G287">
+        <v>3</v>
+      </c>
       <c r="H287">
         <v>52.509</v>
       </c>
@@ -26821,7 +26989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:20">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B288">
         <v>1011111</v>
       </c>
@@ -26837,6 +27005,9 @@
       <c r="F288">
         <v>4</v>
       </c>
+      <c r="G288">
+        <v>4</v>
+      </c>
       <c r="H288">
         <v>81.355999999999995</v>
       </c>
@@ -26877,7 +27048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:20">
+    <row r="289" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B289">
         <v>1011111</v>
       </c>
@@ -26893,6 +27064,9 @@
       <c r="F289">
         <v>5</v>
       </c>
+      <c r="G289">
+        <v>5</v>
+      </c>
       <c r="H289">
         <v>115.512</v>
       </c>
@@ -26933,7 +27107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:20">
+    <row r="290" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B290">
         <v>1011111</v>
       </c>
@@ -26949,6 +27123,9 @@
       <c r="F290">
         <v>6</v>
       </c>
+      <c r="G290">
+        <v>6</v>
+      </c>
       <c r="H290">
         <v>138.75899999999999</v>
       </c>
@@ -26989,7 +27166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:20">
+    <row r="291" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B291">
         <v>100100</v>
       </c>
@@ -27005,6 +27182,9 @@
       <c r="F291">
         <v>1</v>
       </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
       <c r="H291">
         <v>8.577</v>
       </c>
@@ -27045,7 +27225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:20">
+    <row r="292" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B292">
         <v>100100</v>
       </c>
@@ -27061,6 +27241,9 @@
       <c r="F292">
         <v>2</v>
       </c>
+      <c r="G292">
+        <v>2</v>
+      </c>
       <c r="H292">
         <v>42.725999999999999</v>
       </c>
@@ -27089,7 +27272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:20">
+    <row r="293" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B293">
         <v>100100</v>
       </c>
@@ -27105,6 +27288,9 @@
       <c r="F293">
         <v>2</v>
       </c>
+      <c r="G293">
+        <v>3</v>
+      </c>
       <c r="H293">
         <v>75.007000000000005</v>
       </c>
@@ -27145,7 +27331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:20">
+    <row r="294" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B294">
         <v>100100</v>
       </c>
@@ -27161,6 +27347,9 @@
       <c r="F294">
         <v>3</v>
       </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
       <c r="H294">
         <v>112.569</v>
       </c>
@@ -27201,7 +27390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:20">
+    <row r="295" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B295">
         <v>100100</v>
       </c>
@@ -27217,6 +27406,9 @@
       <c r="F295">
         <v>4</v>
       </c>
+      <c r="G295">
+        <v>5</v>
+      </c>
       <c r="H295">
         <v>173.136</v>
       </c>
@@ -27257,7 +27449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:20">
+    <row r="296" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B296">
         <v>100100</v>
       </c>
@@ -27273,6 +27465,9 @@
       <c r="F296">
         <v>5</v>
       </c>
+      <c r="G296">
+        <v>6</v>
+      </c>
       <c r="H296">
         <v>203.85300000000001</v>
       </c>
@@ -27292,7 +27487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:20">
+    <row r="297" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B297">
         <v>100100</v>
       </c>
@@ -27308,6 +27503,9 @@
       <c r="F297">
         <v>5</v>
       </c>
+      <c r="G297">
+        <v>7</v>
+      </c>
       <c r="H297">
         <v>232.54499999999999</v>
       </c>
@@ -27336,7 +27534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:20">
+    <row r="298" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B298">
         <v>100100</v>
       </c>
@@ -27352,6 +27550,9 @@
       <c r="F298">
         <v>5</v>
       </c>
+      <c r="G298">
+        <v>8</v>
+      </c>
       <c r="K298">
         <v>264.57299999999998</v>
       </c>
@@ -27374,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:20">
+    <row r="299" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B299">
         <v>100100</v>
       </c>
@@ -27390,6 +27591,9 @@
       <c r="F299">
         <v>6</v>
       </c>
+      <c r="G299">
+        <v>9</v>
+      </c>
       <c r="H299">
         <v>268.577</v>
       </c>
@@ -27430,7 +27634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:20">
+    <row r="300" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B300">
         <v>10110000</v>
       </c>
@@ -27446,6 +27650,9 @@
       <c r="F300">
         <v>1</v>
       </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
       <c r="H300">
         <v>12.573</v>
       </c>
@@ -27486,7 +27693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:20">
+    <row r="301" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B301">
         <v>10110000</v>
       </c>
@@ -27502,6 +27709,9 @@
       <c r="F301">
         <v>2</v>
       </c>
+      <c r="G301">
+        <v>2</v>
+      </c>
       <c r="H301">
         <v>32.223999999999997</v>
       </c>
@@ -27542,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:20">
+    <row r="302" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B302">
         <v>10110000</v>
       </c>
@@ -27558,6 +27768,9 @@
       <c r="F302">
         <v>3</v>
       </c>
+      <c r="G302">
+        <v>3</v>
+      </c>
       <c r="H302">
         <v>61.837000000000003</v>
       </c>
@@ -27598,7 +27811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:20">
+    <row r="303" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B303">
         <v>10110000</v>
       </c>
@@ -27614,6 +27827,9 @@
       <c r="F303">
         <v>4</v>
       </c>
+      <c r="G303">
+        <v>4</v>
+      </c>
       <c r="H303">
         <v>95.552000000000007</v>
       </c>
@@ -27654,7 +27870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:20">
+    <row r="304" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B304">
         <v>10110000</v>
       </c>
@@ -27670,6 +27886,9 @@
       <c r="F304">
         <v>5</v>
       </c>
+      <c r="G304">
+        <v>5</v>
+      </c>
       <c r="H304">
         <v>118.8</v>
       </c>
@@ -27710,7 +27929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:20">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B305">
         <v>10110000</v>
       </c>
@@ -27726,6 +27945,9 @@
       <c r="F305">
         <v>6</v>
       </c>
+      <c r="G305">
+        <v>6</v>
+      </c>
       <c r="H305">
         <v>146.08699999999999</v>
       </c>
@@ -27766,7 +27988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:20">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B306">
         <v>10110001</v>
       </c>
@@ -27782,6 +28004,9 @@
       <c r="F306">
         <v>1</v>
       </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
       <c r="H306">
         <v>22.061</v>
       </c>
@@ -27822,7 +28047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:20">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B307">
         <v>10110001</v>
       </c>
@@ -27838,6 +28063,9 @@
       <c r="F307">
         <v>2</v>
       </c>
+      <c r="G307">
+        <v>2</v>
+      </c>
       <c r="H307">
         <v>56.741</v>
       </c>
@@ -27878,7 +28106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:20">
+    <row r="308" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B308">
         <v>10110001</v>
       </c>
@@ -27894,6 +28122,9 @@
       <c r="F308">
         <v>3</v>
       </c>
+      <c r="G308">
+        <v>3</v>
+      </c>
       <c r="H308">
         <v>90.328000000000003</v>
       </c>
@@ -27934,7 +28165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:20">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B309">
         <v>10110001</v>
       </c>
@@ -27950,6 +28181,9 @@
       <c r="F309">
         <v>4</v>
       </c>
+      <c r="G309">
+        <v>4</v>
+      </c>
       <c r="H309">
         <v>112.983</v>
       </c>
@@ -27990,7 +28224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:20">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B310">
         <v>10110001</v>
       </c>
@@ -28006,6 +28240,9 @@
       <c r="F310">
         <v>5</v>
       </c>
+      <c r="G310">
+        <v>5</v>
+      </c>
       <c r="H310">
         <v>130.251</v>
       </c>
@@ -28046,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:20">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B311">
         <v>10110001</v>
       </c>
@@ -28062,6 +28299,9 @@
       <c r="F311">
         <v>6</v>
       </c>
+      <c r="G311">
+        <v>6</v>
+      </c>
       <c r="H311">
         <v>161.25200000000001</v>
       </c>
@@ -28102,7 +28342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:20">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B312">
         <v>1110110</v>
       </c>
@@ -28118,6 +28358,9 @@
       <c r="F312">
         <v>1</v>
       </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
       <c r="H312">
         <v>5.1239999999999997</v>
       </c>
@@ -28158,7 +28401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:20">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B313">
         <v>1110110</v>
       </c>
@@ -28174,6 +28417,9 @@
       <c r="F313">
         <v>2</v>
       </c>
+      <c r="G313">
+        <v>2</v>
+      </c>
       <c r="H313">
         <v>21.738</v>
       </c>
@@ -28202,7 +28448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="2:20">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B314">
         <v>1110110</v>
       </c>
@@ -28218,6 +28464,9 @@
       <c r="F314">
         <v>2</v>
       </c>
+      <c r="G314">
+        <v>3</v>
+      </c>
       <c r="H314">
         <v>33.305999999999997</v>
       </c>
@@ -28246,7 +28495,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="2:20">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B315">
         <v>1110110</v>
       </c>
@@ -28262,6 +28511,9 @@
       <c r="F315">
         <v>2</v>
       </c>
+      <c r="G315">
+        <v>4</v>
+      </c>
       <c r="H315">
         <v>44.082000000000001</v>
       </c>
@@ -28302,7 +28554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:20">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B316">
         <v>1110110</v>
       </c>
@@ -28318,6 +28570,9 @@
       <c r="F316">
         <v>3</v>
       </c>
+      <c r="G316">
+        <v>5</v>
+      </c>
       <c r="H316">
         <v>61.994999999999997</v>
       </c>
@@ -28358,7 +28613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:20">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B317">
         <v>1110110</v>
       </c>
@@ -28374,6 +28629,9 @@
       <c r="F317">
         <v>4</v>
       </c>
+      <c r="G317">
+        <v>6</v>
+      </c>
       <c r="H317">
         <v>88.3</v>
       </c>
@@ -28402,7 +28660,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="318" spans="2:20">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B318">
         <v>1110110</v>
       </c>
@@ -28418,6 +28676,9 @@
       <c r="F318">
         <v>4</v>
       </c>
+      <c r="G318">
+        <v>7</v>
+      </c>
       <c r="J318">
         <v>112.38800000000001</v>
       </c>
@@ -28449,7 +28710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:20">
+    <row r="319" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B319">
         <v>1110110</v>
       </c>
@@ -28465,6 +28726,9 @@
       <c r="F319">
         <v>5</v>
       </c>
+      <c r="G319">
+        <v>8</v>
+      </c>
       <c r="H319">
         <v>119.11499999999999</v>
       </c>
@@ -28505,7 +28769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:20">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B320">
         <v>1110110</v>
       </c>
@@ -28521,6 +28785,9 @@
       <c r="F320">
         <v>6</v>
       </c>
+      <c r="G320">
+        <v>9</v>
+      </c>
       <c r="H320">
         <v>148.89400000000001</v>
       </c>
@@ -28561,7 +28828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:20">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B321">
         <v>111000</v>
       </c>
@@ -28577,6 +28844,9 @@
       <c r="F321">
         <v>1</v>
       </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
       <c r="H321">
         <v>6.9480000000000004</v>
       </c>
@@ -28617,7 +28887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="2:20">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B322">
         <v>111000</v>
       </c>
@@ -28633,6 +28903,9 @@
       <c r="F322">
         <v>2</v>
       </c>
+      <c r="G322">
+        <v>2</v>
+      </c>
       <c r="H322">
         <v>37.843000000000004</v>
       </c>
@@ -28673,7 +28946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:20">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B323">
         <v>111000</v>
       </c>
@@ -28689,6 +28962,9 @@
       <c r="F323">
         <v>3</v>
       </c>
+      <c r="G323">
+        <v>3</v>
+      </c>
       <c r="H323">
         <v>66.031000000000006</v>
       </c>
@@ -28729,7 +29005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:20">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B324">
         <v>111000</v>
       </c>
@@ -28745,6 +29021,9 @@
       <c r="F324">
         <v>4</v>
       </c>
+      <c r="G324">
+        <v>4</v>
+      </c>
       <c r="H324">
         <v>97.930999999999997</v>
       </c>
@@ -28785,7 +29064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:20">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B325">
         <v>111000</v>
       </c>
@@ -28801,6 +29080,9 @@
       <c r="F325">
         <v>5</v>
       </c>
+      <c r="G325">
+        <v>5</v>
+      </c>
       <c r="H325">
         <v>150.80000000000001</v>
       </c>
@@ -28841,7 +29123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:20">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B326">
         <v>111000</v>
       </c>
@@ -28857,6 +29139,9 @@
       <c r="F326">
         <v>6</v>
       </c>
+      <c r="G326">
+        <v>6</v>
+      </c>
       <c r="H326">
         <v>181.959</v>
       </c>
@@ -28897,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:20">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B327">
         <v>11001001</v>
       </c>
@@ -28913,6 +29198,9 @@
       <c r="F327">
         <v>1</v>
       </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
       <c r="H327">
         <v>16.218</v>
       </c>
@@ -28953,7 +29241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:20">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B328">
         <v>11001001</v>
       </c>
@@ -28969,6 +29257,9 @@
       <c r="F328">
         <v>2</v>
       </c>
+      <c r="G328">
+        <v>2</v>
+      </c>
       <c r="H328">
         <v>34.436</v>
       </c>
@@ -29009,7 +29300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:20">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B329">
         <v>11001001</v>
       </c>
@@ -29025,6 +29316,9 @@
       <c r="F329">
         <v>3</v>
       </c>
+      <c r="G329">
+        <v>3</v>
+      </c>
       <c r="H329">
         <v>53.515999999999998</v>
       </c>
@@ -29065,7 +29359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="2:20">
+    <row r="330" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B330">
         <v>11001001</v>
       </c>
@@ -29081,6 +29375,9 @@
       <c r="F330">
         <v>4</v>
       </c>
+      <c r="G330">
+        <v>4</v>
+      </c>
       <c r="H330">
         <v>84.393000000000001</v>
       </c>
@@ -29121,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:20">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B331">
         <v>11001001</v>
       </c>
@@ -29137,6 +29434,9 @@
       <c r="F331">
         <v>5</v>
       </c>
+      <c r="G331">
+        <v>5</v>
+      </c>
       <c r="H331">
         <v>100.532</v>
       </c>
@@ -29165,7 +29465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:20">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B332">
         <v>11001001</v>
       </c>
@@ -29181,6 +29481,9 @@
       <c r="F332">
         <v>5</v>
       </c>
+      <c r="G332">
+        <v>6</v>
+      </c>
       <c r="J332">
         <v>115.64100000000001</v>
       </c>
@@ -29212,7 +29515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:20">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B333">
         <v>11001001</v>
       </c>
@@ -29228,6 +29531,9 @@
       <c r="F333">
         <v>6</v>
       </c>
+      <c r="G333">
+        <v>7</v>
+      </c>
       <c r="H333">
         <v>121.33</v>
       </c>
@@ -29268,7 +29574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:20">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B334">
         <v>11000</v>
       </c>
@@ -29284,6 +29590,9 @@
       <c r="F334">
         <v>1</v>
       </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
       <c r="H334">
         <v>8.8070000000000004</v>
       </c>
@@ -29324,7 +29633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:20">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B335">
         <v>11000</v>
       </c>
@@ -29340,6 +29649,9 @@
       <c r="F335">
         <v>2</v>
       </c>
+      <c r="G335">
+        <v>2</v>
+      </c>
       <c r="H335">
         <v>36.561999999999998</v>
       </c>
@@ -29380,7 +29692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:20">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B336">
         <v>11000</v>
       </c>
@@ -29396,6 +29708,9 @@
       <c r="F336">
         <v>3</v>
       </c>
+      <c r="G336">
+        <v>3</v>
+      </c>
       <c r="H336">
         <v>71.16</v>
       </c>
@@ -29436,7 +29751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:20">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B337">
         <v>11000</v>
       </c>
@@ -29452,6 +29767,9 @@
       <c r="F337">
         <v>4</v>
       </c>
+      <c r="G337">
+        <v>4</v>
+      </c>
       <c r="H337">
         <v>95.367999999999995</v>
       </c>
@@ -29492,7 +29810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:20">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B338">
         <v>11000</v>
       </c>
@@ -29508,6 +29826,9 @@
       <c r="F338">
         <v>5</v>
       </c>
+      <c r="G338">
+        <v>5</v>
+      </c>
       <c r="H338">
         <v>117.643</v>
       </c>
@@ -29548,7 +29869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:20">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B339">
         <v>11000</v>
       </c>
@@ -29564,6 +29885,9 @@
       <c r="F339">
         <v>6</v>
       </c>
+      <c r="G339">
+        <v>6</v>
+      </c>
       <c r="H339">
         <v>141.6</v>
       </c>
@@ -29604,7 +29928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:20">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B340">
         <v>101001</v>
       </c>
@@ -29620,6 +29944,9 @@
       <c r="F340">
         <v>1</v>
       </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
       <c r="H340">
         <v>37.484999999999999</v>
       </c>
@@ -29660,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:20">
+    <row r="341" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B341">
         <v>101001</v>
       </c>
@@ -29676,6 +30003,9 @@
       <c r="F341">
         <v>2</v>
       </c>
+      <c r="G341">
+        <v>2</v>
+      </c>
       <c r="H341">
         <v>58.146999999999998</v>
       </c>
@@ -29716,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:20">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B342">
         <v>101001</v>
       </c>
@@ -29732,6 +30062,9 @@
       <c r="F342">
         <v>3</v>
       </c>
+      <c r="G342">
+        <v>3</v>
+      </c>
       <c r="H342">
         <v>77.45</v>
       </c>
@@ -29772,7 +30105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:20">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B343">
         <v>101001</v>
       </c>
@@ -29788,6 +30121,9 @@
       <c r="F343">
         <v>4</v>
       </c>
+      <c r="G343">
+        <v>4</v>
+      </c>
       <c r="H343">
         <v>99.846000000000004</v>
       </c>
@@ -29807,7 +30143,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="344" spans="2:20">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B344">
         <v>101001</v>
       </c>
@@ -29823,6 +30159,9 @@
       <c r="F344">
         <v>4</v>
       </c>
+      <c r="G344">
+        <v>5</v>
+      </c>
       <c r="H344">
         <v>119.27500000000001</v>
       </c>
@@ -29863,7 +30202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:20">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B345">
         <v>101001</v>
       </c>
@@ -29879,6 +30218,9 @@
       <c r="F345">
         <v>5</v>
       </c>
+      <c r="G345">
+        <v>6</v>
+      </c>
       <c r="H345">
         <v>132.191</v>
       </c>
@@ -29907,7 +30249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:20">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B346">
         <v>101001</v>
       </c>
@@ -29923,6 +30265,9 @@
       <c r="F346">
         <v>5</v>
       </c>
+      <c r="G346">
+        <v>7</v>
+      </c>
       <c r="J346" t="s">
         <v>1787</v>
       </c>
@@ -29933,7 +30278,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="347" spans="2:20">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B347">
         <v>101001</v>
       </c>
@@ -29949,6 +30294,9 @@
       <c r="F347">
         <v>5</v>
       </c>
+      <c r="G347">
+        <v>8</v>
+      </c>
       <c r="H347">
         <v>156.791</v>
       </c>
@@ -29989,7 +30337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:20">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B348">
         <v>101001</v>
       </c>
@@ -30005,6 +30353,9 @@
       <c r="F348">
         <v>6</v>
       </c>
+      <c r="G348">
+        <v>9</v>
+      </c>
       <c r="H348">
         <v>174.32599999999999</v>
       </c>
@@ -30033,7 +30384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:20">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B349">
         <v>101001</v>
       </c>
@@ -30049,6 +30400,9 @@
       <c r="F349">
         <v>6</v>
       </c>
+      <c r="G349">
+        <v>10</v>
+      </c>
       <c r="J349">
         <v>195.435</v>
       </c>
@@ -30080,7 +30434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="2:20">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B350">
         <v>110010</v>
       </c>
@@ -30096,6 +30450,9 @@
       <c r="F350">
         <v>1</v>
       </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
       <c r="H350">
         <v>18.878</v>
       </c>
@@ -30136,7 +30493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:20">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B351">
         <v>110010</v>
       </c>
@@ -30152,6 +30509,9 @@
       <c r="F351">
         <v>2</v>
       </c>
+      <c r="G351">
+        <v>2</v>
+      </c>
       <c r="H351">
         <v>33.341999999999999</v>
       </c>
@@ -30192,7 +30552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:20">
+    <row r="352" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B352">
         <v>110010</v>
       </c>
@@ -30208,6 +30568,9 @@
       <c r="F352">
         <v>3</v>
       </c>
+      <c r="G352">
+        <v>3</v>
+      </c>
       <c r="H352">
         <v>47.104999999999997</v>
       </c>
@@ -30248,7 +30611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:20">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B353">
         <v>110010</v>
       </c>
@@ -30264,6 +30627,9 @@
       <c r="F353">
         <v>4</v>
       </c>
+      <c r="G353">
+        <v>4</v>
+      </c>
       <c r="H353">
         <v>87.358000000000004</v>
       </c>
@@ -30304,7 +30670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:20">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B354">
         <v>110010</v>
       </c>
@@ -30320,6 +30686,9 @@
       <c r="F354">
         <v>5</v>
       </c>
+      <c r="G354">
+        <v>5</v>
+      </c>
       <c r="H354">
         <v>109.325</v>
       </c>
@@ -30360,7 +30729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:20">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B355">
         <v>110010</v>
       </c>
@@ -30376,6 +30745,9 @@
       <c r="F355">
         <v>6</v>
       </c>
+      <c r="G355">
+        <v>6</v>
+      </c>
       <c r="H355">
         <v>130.876</v>
       </c>
@@ -30404,7 +30776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:20">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B356">
         <v>110010</v>
       </c>
@@ -30420,6 +30792,9 @@
       <c r="F356">
         <v>6</v>
       </c>
+      <c r="G356">
+        <v>7</v>
+      </c>
       <c r="J356" t="s">
         <v>1797</v>
       </c>
@@ -30451,7 +30826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:20">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B357">
         <v>10100011</v>
       </c>
@@ -30464,6 +30839,9 @@
       <c r="F357">
         <v>1</v>
       </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
       <c r="H357">
         <v>12.477</v>
       </c>
@@ -30504,7 +30882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:20">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B358">
         <v>10100011</v>
       </c>
@@ -30517,6 +30895,9 @@
       <c r="F358">
         <v>2</v>
       </c>
+      <c r="G358">
+        <v>2</v>
+      </c>
       <c r="H358">
         <v>40.444000000000003</v>
       </c>
@@ -30557,7 +30938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:20">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B359">
         <v>10100011</v>
       </c>
@@ -30570,6 +30951,9 @@
       <c r="F359">
         <v>3</v>
       </c>
+      <c r="G359">
+        <v>3</v>
+      </c>
       <c r="H359">
         <v>67.814999999999998</v>
       </c>
@@ -30610,7 +30994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:20">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B360">
         <v>10100011</v>
       </c>
@@ -30623,6 +31007,9 @@
       <c r="F360">
         <v>4</v>
       </c>
+      <c r="G360">
+        <v>4</v>
+      </c>
       <c r="H360">
         <v>169.53800000000001</v>
       </c>
@@ -30663,7 +31050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:20">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B361">
         <v>10100011</v>
       </c>
@@ -30676,6 +31063,9 @@
       <c r="F361">
         <v>5</v>
       </c>
+      <c r="G361">
+        <v>5</v>
+      </c>
       <c r="H361">
         <v>193.125</v>
       </c>
@@ -30716,7 +31106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:20">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B362">
         <v>10100011</v>
       </c>
@@ -30729,6 +31119,9 @@
       <c r="F362">
         <v>6</v>
       </c>
+      <c r="G362">
+        <v>6</v>
+      </c>
       <c r="H362">
         <v>213.61500000000001</v>
       </c>
@@ -30769,7 +31162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:20">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B363">
         <v>101011</v>
       </c>
@@ -30782,6 +31175,9 @@
       <c r="F363">
         <v>1</v>
       </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
       <c r="H363">
         <v>5.3730000000000002</v>
       </c>
@@ -30822,7 +31218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:20">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B364">
         <v>101011</v>
       </c>
@@ -30835,6 +31231,9 @@
       <c r="F364">
         <v>2</v>
       </c>
+      <c r="G364">
+        <v>2</v>
+      </c>
       <c r="H364">
         <v>34.378999999999998</v>
       </c>
@@ -30875,7 +31274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:20">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B365">
         <v>101011</v>
       </c>
@@ -30888,6 +31287,9 @@
       <c r="F365">
         <v>3</v>
       </c>
+      <c r="G365">
+        <v>3</v>
+      </c>
       <c r="H365">
         <v>74.843000000000004</v>
       </c>
@@ -30928,7 +31330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:20">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B366">
         <v>101011</v>
       </c>
@@ -30941,6 +31343,9 @@
       <c r="F366">
         <v>4</v>
       </c>
+      <c r="G366">
+        <v>4</v>
+      </c>
       <c r="H366">
         <v>126.124</v>
       </c>
@@ -30969,7 +31374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:20">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B367">
         <v>101011</v>
       </c>
@@ -30982,6 +31387,9 @@
       <c r="F367">
         <v>4</v>
       </c>
+      <c r="G367">
+        <v>5</v>
+      </c>
       <c r="J367">
         <v>166.21600000000001</v>
       </c>
@@ -31013,7 +31421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:20">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B368">
         <v>101011</v>
       </c>
@@ -31026,6 +31434,9 @@
       <c r="F368">
         <v>5</v>
       </c>
+      <c r="G368">
+        <v>6</v>
+      </c>
       <c r="H368">
         <v>177.67400000000001</v>
       </c>
@@ -31066,7 +31477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:20">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B369">
         <v>101011</v>
       </c>
@@ -31079,6 +31490,9 @@
       <c r="F369">
         <v>6</v>
       </c>
+      <c r="G369">
+        <v>7</v>
+      </c>
       <c r="H369">
         <v>221.71299999999999</v>
       </c>
@@ -31119,7 +31533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:20">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B370">
         <v>100110</v>
       </c>
@@ -31132,6 +31546,9 @@
       <c r="F370">
         <v>1</v>
       </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
       <c r="H370">
         <v>26.901</v>
       </c>
@@ -31172,7 +31589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:20">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B371">
         <v>100110</v>
       </c>
@@ -31185,6 +31602,9 @@
       <c r="F371">
         <v>2</v>
       </c>
+      <c r="G371">
+        <v>2</v>
+      </c>
       <c r="H371">
         <v>43.508000000000003</v>
       </c>
@@ -31213,7 +31633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:20">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B372">
         <v>100110</v>
       </c>
@@ -31226,6 +31646,9 @@
       <c r="F372">
         <v>2</v>
       </c>
+      <c r="G372">
+        <v>3</v>
+      </c>
       <c r="H372">
         <v>62.648000000000003</v>
       </c>
@@ -31266,7 +31689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:20">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B373">
         <v>100110</v>
       </c>
@@ -31279,6 +31702,9 @@
       <c r="F373">
         <v>3</v>
       </c>
+      <c r="G373">
+        <v>4</v>
+      </c>
       <c r="H373">
         <v>74.853999999999999</v>
       </c>
@@ -31307,7 +31733,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="374" spans="2:20">
+    <row r="374" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B374">
         <v>100110</v>
       </c>
@@ -31320,6 +31746,9 @@
       <c r="F374">
         <v>3</v>
       </c>
+      <c r="G374">
+        <v>5</v>
+      </c>
       <c r="J374">
         <v>108.476</v>
       </c>
@@ -31351,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="2:20">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B375">
         <v>100110</v>
       </c>
@@ -31364,6 +31793,9 @@
       <c r="F375">
         <v>4</v>
       </c>
+      <c r="G375">
+        <v>6</v>
+      </c>
       <c r="H375">
         <v>117.42400000000001</v>
       </c>
@@ -31404,7 +31836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:20">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B376">
         <v>100110</v>
       </c>
@@ -31417,6 +31849,9 @@
       <c r="F376">
         <v>5</v>
       </c>
+      <c r="G376">
+        <v>7</v>
+      </c>
       <c r="H376">
         <v>141.67099999999999</v>
       </c>
@@ -31436,7 +31871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:20">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B377">
         <v>100110</v>
       </c>
@@ -31449,6 +31884,9 @@
       <c r="F377">
         <v>5</v>
       </c>
+      <c r="G377">
+        <v>8</v>
+      </c>
       <c r="H377">
         <v>160.053</v>
       </c>
@@ -31489,7 +31927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:20">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B378">
         <v>100110</v>
       </c>
@@ -31502,6 +31940,9 @@
       <c r="F378">
         <v>6</v>
       </c>
+      <c r="G378">
+        <v>9</v>
+      </c>
       <c r="H378">
         <v>181.20500000000001</v>
       </c>
@@ -31542,7 +31983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:20">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B379">
         <v>10110</v>
       </c>
@@ -31558,6 +31999,9 @@
       <c r="F379">
         <v>1</v>
       </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
       <c r="H379">
         <v>20.5</v>
       </c>
@@ -31598,7 +32042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:20">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B380">
         <v>10110</v>
       </c>
@@ -31614,6 +32058,9 @@
       <c r="F380">
         <v>2</v>
       </c>
+      <c r="G380">
+        <v>2</v>
+      </c>
       <c r="H380">
         <v>42.88</v>
       </c>
@@ -31654,7 +32101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:20">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B381">
         <v>10110</v>
       </c>
@@ -31670,6 +32117,9 @@
       <c r="F381">
         <v>3</v>
       </c>
+      <c r="G381">
+        <v>3</v>
+      </c>
       <c r="H381">
         <v>76.853999999999999</v>
       </c>
@@ -31710,7 +32160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="2:20">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B382">
         <v>10110</v>
       </c>
@@ -31726,6 +32176,9 @@
       <c r="F382">
         <v>4</v>
       </c>
+      <c r="G382">
+        <v>4</v>
+      </c>
       <c r="H382">
         <v>107.383</v>
       </c>
@@ -31766,7 +32219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="2:20">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B383">
         <v>10110</v>
       </c>
@@ -31782,6 +32235,9 @@
       <c r="F383">
         <v>5</v>
       </c>
+      <c r="G383">
+        <v>5</v>
+      </c>
       <c r="H383">
         <v>127.902</v>
       </c>
@@ -31810,7 +32266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="384" spans="2:20">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B384">
         <v>10110</v>
       </c>
@@ -31826,6 +32282,9 @@
       <c r="F384">
         <v>5</v>
       </c>
+      <c r="G384">
+        <v>6</v>
+      </c>
       <c r="J384" t="s">
         <v>1818</v>
       </c>
@@ -31857,7 +32316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:20">
+    <row r="385" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B385">
         <v>10110</v>
       </c>
@@ -31873,6 +32332,9 @@
       <c r="F385">
         <v>6</v>
       </c>
+      <c r="G385">
+        <v>7</v>
+      </c>
       <c r="H385">
         <v>163.553</v>
       </c>
@@ -31913,7 +32375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="2:20">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B386">
         <v>1010</v>
       </c>
@@ -31929,6 +32391,9 @@
       <c r="F386">
         <v>1</v>
       </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
       <c r="H386">
         <v>21.327999999999999</v>
       </c>
@@ -31969,7 +32434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:20">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B387">
         <v>1010</v>
       </c>
@@ -31985,6 +32450,9 @@
       <c r="F387">
         <v>2</v>
       </c>
+      <c r="G387">
+        <v>2</v>
+      </c>
       <c r="H387">
         <v>45.600999999999999</v>
       </c>
@@ -32025,7 +32493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:20">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B388">
         <v>1010</v>
       </c>
@@ -32041,6 +32509,9 @@
       <c r="F388">
         <v>3</v>
       </c>
+      <c r="G388">
+        <v>3</v>
+      </c>
       <c r="H388">
         <v>78.95</v>
       </c>
@@ -32081,7 +32552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:20">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B389">
         <v>1010</v>
       </c>
@@ -32097,6 +32568,9 @@
       <c r="F389">
         <v>4</v>
       </c>
+      <c r="G389">
+        <v>4</v>
+      </c>
       <c r="H389">
         <v>112.39</v>
       </c>
@@ -32137,7 +32611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="2:20">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B390">
         <v>1010</v>
       </c>
@@ -32153,6 +32627,9 @@
       <c r="F390">
         <v>5</v>
       </c>
+      <c r="G390">
+        <v>5</v>
+      </c>
       <c r="H390">
         <v>137.386</v>
       </c>
@@ -32181,7 +32658,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="391" spans="2:20">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B391">
         <v>1010</v>
       </c>
@@ -32197,6 +32674,9 @@
       <c r="F391">
         <v>5</v>
       </c>
+      <c r="G391">
+        <v>6</v>
+      </c>
       <c r="H391">
         <v>176.947</v>
       </c>
@@ -32237,7 +32717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:20">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B392">
         <v>1010</v>
       </c>
@@ -32252,6 +32732,9 @@
       </c>
       <c r="F392">
         <v>6</v>
+      </c>
+      <c r="G392">
+        <v>7</v>
       </c>
       <c r="H392">
         <v>196.53700000000001</v>
